--- a/tables/Overview observations.xlsx
+++ b/tables/Overview observations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femke\Documents\Sterrenkunde bestanden\Master\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femke\Documents\GitHub\master_project_2\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AE2398-D83D-4C65-9951-F7DB99987138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66FB096-C3F2-4532-A5D6-F06C9AB0A507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{767BF6B3-5C99-49F4-9A0D-E194E5AE08A2}"/>
   </bookViews>
@@ -197,9 +197,6 @@
     <t>2 is in, likely. 3 is in, possible. 1 is out, possible</t>
   </si>
   <si>
-    <t>There are 2 other observations in band 7 but not the right coordinates</t>
-  </si>
-  <si>
     <t>1-8 observed. 9 is not, possible</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>In: 4p, 10p, 11l, 14p</t>
+  </si>
+  <si>
+    <t>There are 2 other observations in band 7 but not the right coordinates&gt; future Femke doubts this, check again!</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63674D2-B03A-4DDF-BEF8-B96B1489FF66}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -718,7 +718,7 @@
         <v>29.253</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -735,7 +735,7 @@
         <v>17.064</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -800,7 +800,7 @@
         <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -822,7 +822,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -862,7 +862,7 @@
         <v>32.472000000000001</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
@@ -876,15 +876,15 @@
         <v>44.500999999999998</v>
       </c>
       <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
         <v>60</v>
-      </c>
-      <c r="G16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -924,12 +924,12 @@
         <v>44.512999999999998</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -977,7 +977,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
         <v>45</v>
@@ -1017,7 +1017,7 @@
         <v>44.500999999999998</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
         <v>41</v>
@@ -1034,10 +1034,10 @@
         <v>17.062000000000001</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1077,7 +1077,7 @@
         <v>29.248000000000001</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -1097,7 +1097,7 @@
         <v>17.062000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
         <v>32.470999999999997</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
@@ -1134,12 +1134,12 @@
         <v>44.5</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
